--- a/LAPR3-2022-Self-Assessment_v1.0.xlsx
+++ b/LAPR3-2022-Self-Assessment_v1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedromesquita/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ruben\LEI\2ANO\1SEMESTRE\LAPR3\projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83796FE2-3063-7740-84F7-74702E0DD6E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D8120F-7E17-4177-A915-CDB4B003BB2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Group and Self Assessment" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,10 @@
     <sheet name="Project Development" sheetId="3" r:id="rId3"/>
     <sheet name="Project Management" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Project Development'!$A$3:$Z$10</definedName>
+  </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1018,9 +1020,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1046,9 +1045,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="65" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1096,6 +1092,99 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="65" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="65" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1104,93 +1193,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="65" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="65" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1839,668 +1841,668 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5.6640625" customWidth="1"/>
+    <col min="2" max="2" width="5.625" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="19" width="7.83203125" customWidth="1"/>
+    <col min="4" max="19" width="7.875" customWidth="1"/>
     <col min="20" max="20" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-    </row>
-    <row r="4" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>64</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="I5" s="66" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I5" s="63" t="s">
         <v>140</v>
       </c>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="63"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="E8" s="5" t="s">
+    <row r="8" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="E8" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-    </row>
-    <row r="9" spans="1:20" ht="106" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="12">
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="61"/>
+      <c r="P8" s="61"/>
+      <c r="Q8" s="61"/>
+      <c r="R8" s="61"/>
+      <c r="S8" s="61"/>
+      <c r="T8" s="61"/>
+    </row>
+    <row r="9" spans="1:20" ht="105.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="11">
         <f>C10</f>
         <v>1210792</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="12">
         <f>C11</f>
         <v>1211250</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="12">
         <f>C12</f>
         <v>1201078</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="12">
         <f>C13</f>
         <v>1211171</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="12">
         <f>C14</f>
         <v>1211861</v>
       </c>
-      <c r="I9" s="13" t="str">
+      <c r="I9" s="12" t="str">
         <f>C15</f>
         <v>Student 6</v>
       </c>
-      <c r="J9" s="13" t="str">
+      <c r="J9" s="12" t="str">
         <f>C16</f>
         <v>Student 7</v>
       </c>
-      <c r="K9" s="13" t="str">
+      <c r="K9" s="12" t="str">
         <f>C17</f>
         <v>Student 8</v>
       </c>
-      <c r="L9" s="13" t="str">
+      <c r="L9" s="12" t="str">
         <f>C18</f>
         <v>Student 9</v>
       </c>
-      <c r="M9" s="13" t="str">
+      <c r="M9" s="12" t="str">
         <f>C19</f>
         <v>Student 10</v>
       </c>
-      <c r="N9" s="13" t="str">
+      <c r="N9" s="12" t="str">
         <f>C20</f>
         <v>Student 11</v>
       </c>
-      <c r="O9" s="13" t="str">
+      <c r="O9" s="12" t="str">
         <f>C21</f>
         <v>Student 12</v>
       </c>
-      <c r="P9" s="13" t="str">
+      <c r="P9" s="12" t="str">
         <f>C22</f>
         <v>Student 13</v>
       </c>
-      <c r="Q9" s="13" t="str">
+      <c r="Q9" s="12" t="str">
         <f>C23</f>
         <v>Student 14</v>
       </c>
-      <c r="R9" s="13" t="str">
+      <c r="R9" s="12" t="str">
         <f>C24</f>
         <v>Student 15</v>
       </c>
-      <c r="S9" s="14" t="s">
+      <c r="S9" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
+    <row r="10" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="14">
         <v>1210792</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="15">
         <v>3</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="16">
         <v>3</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="17">
         <v>3</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="17">
         <v>3</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="17">
         <v>3</v>
       </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="20">
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="18">
         <f t="shared" ref="S10:S24" si="0">AVERAGE(D10:R10)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B11" s="4"/>
-      <c r="C11" s="21">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B11" s="62"/>
+      <c r="C11" s="19">
         <v>1211250</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="20">
         <v>5</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="15">
         <v>4</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="21">
         <v>4</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="19">
         <v>4</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="19">
         <v>3</v>
       </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="25">
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="23">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B12" s="4"/>
-      <c r="C12" s="21">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B12" s="62"/>
+      <c r="C12" s="19">
         <v>1201078</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="19">
         <v>4</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="20">
         <v>4</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="15">
         <v>4</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="21">
         <v>4</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="19">
         <v>3</v>
       </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="25">
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="23">
         <f t="shared" si="0"/>
         <v>3.8</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B13" s="4"/>
-      <c r="C13" s="21">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B13" s="62"/>
+      <c r="C13" s="19">
         <v>1211171</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="19">
         <v>4</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="19">
         <v>4</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="20">
         <v>4</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="15">
         <v>4</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="21">
         <v>3</v>
       </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="25">
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="23">
         <f t="shared" si="0"/>
         <v>3.8</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B14" s="4"/>
-      <c r="C14" s="21">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B14" s="62"/>
+      <c r="C14" s="19">
         <v>1211861</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="19">
         <v>4</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="19">
         <v>4</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="19">
         <v>4</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="20">
         <v>4</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="15">
         <v>4</v>
       </c>
-      <c r="I14" s="23"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="25">
+      <c r="I14" s="21"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="23">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="B15" s="4"/>
-      <c r="C15" s="21" t="s">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B15" s="62"/>
+      <c r="C15" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="25" t="e">
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="23" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="B16" s="4"/>
-      <c r="C16" s="21" t="s">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B16" s="62"/>
+      <c r="C16" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="25" t="e">
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="23" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="B17" s="4"/>
-      <c r="C17" s="21" t="s">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B17" s="62"/>
+      <c r="C17" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="25" t="e">
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="23" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="B18" s="4"/>
-      <c r="C18" s="21" t="s">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B18" s="62"/>
+      <c r="C18" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="25" t="e">
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="23" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="B19" s="4"/>
-      <c r="C19" s="21" t="s">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B19" s="62"/>
+      <c r="C19" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="25" t="e">
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="23" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="B20" s="4"/>
-      <c r="C20" s="21" t="s">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B20" s="62"/>
+      <c r="C20" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="25" t="e">
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="23" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="B21" s="4"/>
-      <c r="C21" s="21" t="s">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B21" s="62"/>
+      <c r="C21" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="25" t="e">
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="23" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="B22" s="4"/>
-      <c r="C22" s="21" t="s">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B22" s="62"/>
+      <c r="C22" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="25" t="e">
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="23" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="B23" s="4"/>
-      <c r="C23" s="21" t="s">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B23" s="62"/>
+      <c r="C23" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="25" t="e">
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="23" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="B24" s="4"/>
-      <c r="C24" s="27" t="s">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B24" s="62"/>
+      <c r="C24" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="30" t="e">
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="28" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="B25" s="7"/>
-      <c r="C25" s="15" t="s">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B25" s="6"/>
+      <c r="C25" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="31">
+      <c r="D25" s="29">
         <f t="shared" ref="D25:R25" si="1">AVERAGE(D10:D24)</f>
         <v>4</v>
       </c>
-      <c r="E25" s="31">
+      <c r="E25" s="29">
         <f t="shared" si="1"/>
         <v>3.8</v>
       </c>
-      <c r="F25" s="31">
+      <c r="F25" s="29">
         <f t="shared" si="1"/>
         <v>3.8</v>
       </c>
-      <c r="G25" s="31">
+      <c r="G25" s="29">
         <f t="shared" si="1"/>
         <v>3.8</v>
       </c>
-      <c r="H25" s="31">
+      <c r="H25" s="29">
         <f t="shared" si="1"/>
         <v>3.2</v>
       </c>
-      <c r="I25" s="31" t="e">
+      <c r="I25" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J25" s="31" t="e">
+      <c r="J25" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K25" s="31" t="e">
+      <c r="K25" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L25" s="31" t="e">
+      <c r="L25" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M25" s="31" t="e">
+      <c r="M25" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N25" s="31" t="e">
+      <c r="N25" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O25" s="31" t="e">
+      <c r="O25" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P25" s="31" t="e">
+      <c r="P25" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q25" s="31" t="e">
+      <c r="Q25" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R25" s="32" t="e">
+      <c r="R25" s="30" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S25" s="33"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27" s="11" t="s">
+      <c r="S25" s="31"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0</v>
       </c>
@@ -2508,7 +2510,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2516,7 +2518,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2</v>
       </c>
@@ -2524,7 +2526,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3</v>
       </c>
@@ -2532,7 +2534,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4</v>
       </c>
@@ -2540,7 +2542,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>5</v>
       </c>
@@ -2570,580 +2572,626 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="20.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
     <col min="5" max="10" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="32" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="3">
         <v>0</v>
       </c>
-      <c r="F3" s="36">
+      <c r="F3" s="2">
         <v>1</v>
       </c>
-      <c r="G3" s="36">
+      <c r="G3" s="2">
         <v>2</v>
       </c>
-      <c r="H3" s="36">
+      <c r="H3" s="2">
         <v>3</v>
       </c>
-      <c r="I3" s="36">
+      <c r="I3" s="2">
         <v>4</v>
       </c>
-      <c r="J3" s="37">
+      <c r="J3" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="38" t="s">
+    <row r="4" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="64"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="39" t="s">
+      <c r="H4" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="40" t="s">
+      <c r="J4" s="35" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="41" t="s">
+    <row r="5" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="64"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="42" t="s">
+      <c r="H5" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="42" t="s">
+      <c r="I5" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="43" t="s">
+      <c r="J5" s="38" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="38"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="46" t="s">
+    <row r="6" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="33">
+        <v>110</v>
+      </c>
+      <c r="B6" s="39">
+        <v>1211861</v>
+      </c>
+      <c r="C6" s="39"/>
+      <c r="D6" s="40">
+        <v>4</v>
+      </c>
+      <c r="E6" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="47" t="s">
+      <c r="G6" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="47" t="s">
+      <c r="H6" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="47" t="s">
+      <c r="I6" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="48" t="s">
+      <c r="J6" s="43" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="38"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="38" t="s">
+    <row r="7" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="33">
+        <v>111</v>
+      </c>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="39" t="s">
+      <c r="F7" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="39" t="s">
+      <c r="G7" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="39" t="s">
+      <c r="H7" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="39" t="s">
+      <c r="I7" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="48" t="s">
+      <c r="J7" s="43" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A8" s="38"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="38" t="s">
+    <row r="8" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="33">
+        <v>112</v>
+      </c>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G8" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="39" t="s">
+      <c r="H8" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="39" t="s">
+      <c r="I8" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="J8" s="48" t="s">
+      <c r="J8" s="43" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" s="38"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="38" t="s">
+    <row r="9" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="33">
+        <v>210</v>
+      </c>
+      <c r="B9" s="39">
+        <v>1211861</v>
+      </c>
+      <c r="C9" s="39"/>
+      <c r="D9" s="40">
+        <v>3</v>
+      </c>
+      <c r="E9" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="39" t="s">
+      <c r="F9" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="39" t="s">
+      <c r="G9" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="39" t="s">
+      <c r="H9" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="I9" s="39" t="s">
+      <c r="I9" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="48" t="s">
+      <c r="J9" s="43" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A10" s="38"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="38" t="s">
+    <row r="10" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="33">
+        <v>212</v>
+      </c>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="39" t="s">
+      <c r="F10" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="39" t="s">
+      <c r="G10" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="39" t="s">
+      <c r="H10" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="39" t="s">
+      <c r="I10" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="J10" s="48" t="s">
+      <c r="J10" s="43" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A11" s="38"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="38" t="s">
+    <row r="11" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="33">
+        <v>213</v>
+      </c>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="F11" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="39" t="s">
+      <c r="G11" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="39" t="s">
+      <c r="H11" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="39" t="s">
+      <c r="I11" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="J11" s="48" t="s">
+      <c r="J11" s="43" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A12" s="38"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="38" t="s">
+    <row r="12" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="33">
+        <v>214</v>
+      </c>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="39" t="s">
+      <c r="F12" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="39" t="s">
+      <c r="G12" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="39" t="s">
+      <c r="H12" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="39" t="s">
+      <c r="I12" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="J12" s="48" t="s">
+      <c r="J12" s="43" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A13" s="38"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="38" t="s">
+    <row r="13" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="33">
+        <v>307</v>
+      </c>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="39" t="s">
+      <c r="F13" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="39" t="s">
+      <c r="G13" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="H13" s="39" t="s">
+      <c r="H13" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="I13" s="39" t="s">
+      <c r="I13" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="J13" s="48" t="s">
+      <c r="J13" s="43" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" s="38"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="38" t="s">
+    <row r="14" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="33">
+        <v>308</v>
+      </c>
+      <c r="B14" s="39">
+        <v>1211861</v>
+      </c>
+      <c r="C14" s="39"/>
+      <c r="D14" s="40">
+        <v>4</v>
+      </c>
+      <c r="E14" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="39" t="s">
+      <c r="F14" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="39" t="s">
+      <c r="G14" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="39" t="s">
+      <c r="H14" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="39" t="s">
+      <c r="I14" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="J14" s="48" t="s">
+      <c r="J14" s="43" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A15" s="38"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="38" t="s">
+    <row r="15" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="33">
+        <v>309</v>
+      </c>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="39" t="s">
+      <c r="F15" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="39" t="s">
+      <c r="G15" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="39" t="s">
+      <c r="H15" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="I15" s="39" t="s">
+      <c r="I15" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="J15" s="48" t="s">
+      <c r="J15" s="43" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A16" s="38"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="38" t="s">
+    <row r="16" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="33">
+        <v>310</v>
+      </c>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="39" t="s">
+      <c r="F16" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="39" t="s">
+      <c r="G16" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="39" t="s">
+      <c r="H16" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="I16" s="39" t="s">
+      <c r="I16" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="J16" s="48" t="s">
+      <c r="J16" s="43" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A17" s="38"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="38" t="s">
+    <row r="17" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="33">
+        <v>311</v>
+      </c>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="39" t="s">
+      <c r="F17" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="39" t="s">
+      <c r="G17" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="39" t="s">
+      <c r="H17" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="I17" s="39" t="s">
+      <c r="I17" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="J17" s="48" t="s">
+      <c r="J17" s="43" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A18" s="38"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="38" t="s">
+    <row r="18" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="33">
+        <v>406</v>
+      </c>
+      <c r="B18" s="39">
+        <v>1211861</v>
+      </c>
+      <c r="C18" s="39"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="39" t="s">
+      <c r="F18" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="39" t="s">
+      <c r="G18" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="39" t="s">
+      <c r="H18" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="I18" s="39" t="s">
+      <c r="I18" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="J18" s="48" t="s">
+      <c r="J18" s="43" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A19" s="38"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="38" t="s">
+    <row r="19" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="33">
+        <v>407</v>
+      </c>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="39" t="s">
+      <c r="F19" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="39" t="s">
+      <c r="G19" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="39" t="s">
+      <c r="H19" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="39" t="s">
+      <c r="I19" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="J19" s="48" t="s">
+      <c r="J19" s="43" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A20" s="38"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="38" t="s">
+    <row r="20" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="33">
+        <v>408</v>
+      </c>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="39" t="s">
+      <c r="F20" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="39" t="s">
+      <c r="G20" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="H20" s="39" t="s">
+      <c r="H20" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="I20" s="39" t="s">
+      <c r="I20" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="J20" s="48" t="s">
+      <c r="J20" s="43" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A21" s="38"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="38" t="s">
+    <row r="21" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="33">
+        <v>409</v>
+      </c>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="39" t="s">
+      <c r="F21" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="G21" s="39" t="s">
+      <c r="G21" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="H21" s="39" t="s">
+      <c r="H21" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="I21" s="39" t="s">
+      <c r="I21" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="J21" s="48" t="s">
+      <c r="J21" s="43" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A22" s="38"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="38" t="s">
+    <row r="22" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="33"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="39" t="s">
+      <c r="F22" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="39" t="s">
+      <c r="G22" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="H22" s="39" t="s">
+      <c r="H22" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="I22" s="39" t="s">
+      <c r="I22" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="J22" s="48" t="s">
+      <c r="J22" s="43" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A23" s="38"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="38" t="s">
+    <row r="23" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="33"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="39" t="s">
+      <c r="F23" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="G23" s="39" t="s">
+      <c r="G23" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="H23" s="39" t="s">
+      <c r="H23" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="I23" s="39" t="s">
+      <c r="I23" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="J23" s="48" t="s">
+      <c r="J23" s="43" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A24" s="38"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="38" t="s">
+    <row r="24" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="33"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="39" t="s">
+      <c r="F24" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="G24" s="39" t="s">
+      <c r="G24" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="H24" s="39" t="s">
+      <c r="H24" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="I24" s="39" t="s">
+      <c r="I24" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="J24" s="48" t="s">
+      <c r="J24" s="43" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A25" s="41"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="41" t="s">
+    <row r="25" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="36"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="F25" s="42" t="s">
+      <c r="F25" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="G25" s="42" t="s">
+      <c r="G25" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="H25" s="42" t="s">
+      <c r="H25" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="I25" s="42" t="s">
+      <c r="I25" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="J25" s="48" t="s">
+      <c r="J25" s="43" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3269,584 +3317,585 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMJ11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" style="7" customWidth="1"/>
-    <col min="3" max="17" width="5.6640625" style="7" customWidth="1"/>
-    <col min="18" max="18" width="12.1640625" style="7" customWidth="1"/>
-    <col min="19" max="20" width="16.33203125" style="7" customWidth="1"/>
-    <col min="21" max="21" width="17.5" style="7" customWidth="1"/>
-    <col min="22" max="22" width="17" style="7" customWidth="1"/>
-    <col min="23" max="23" width="16.5" style="7" customWidth="1"/>
-    <col min="24" max="24" width="16.33203125" style="7" customWidth="1"/>
-    <col min="25" max="25" width="11" style="7" customWidth="1"/>
-    <col min="26" max="26" width="8.33203125" style="7" customWidth="1"/>
-    <col min="27" max="28" width="7.33203125" style="7" customWidth="1"/>
-    <col min="29" max="1024" width="10.83203125" style="7"/>
+    <col min="1" max="1" width="14.875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="7.125" style="6" customWidth="1"/>
+    <col min="3" max="17" width="5.625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="12.125" style="6" customWidth="1"/>
+    <col min="19" max="20" width="16.375" style="6" customWidth="1"/>
+    <col min="21" max="21" width="17.5" style="6" customWidth="1"/>
+    <col min="22" max="22" width="17" style="6" customWidth="1"/>
+    <col min="23" max="23" width="16.5" style="6" customWidth="1"/>
+    <col min="24" max="24" width="16.375" style="6" customWidth="1"/>
+    <col min="25" max="25" width="11" style="6" customWidth="1"/>
+    <col min="26" max="26" width="8.375" style="6" customWidth="1"/>
+    <col min="27" max="28" width="7.375" style="6" customWidth="1"/>
+    <col min="29" max="1024" width="10.875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-    </row>
-    <row r="3" spans="1:26" ht="60" x14ac:dyDescent="0.2">
-      <c r="A3" s="52" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+    </row>
+    <row r="3" spans="1:26" ht="57" x14ac:dyDescent="0.25">
+      <c r="A3" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="53">
+      <c r="C3" s="48">
         <f>'Group and Self Assessment'!C10</f>
         <v>1210792</v>
       </c>
-      <c r="D3" s="53">
+      <c r="D3" s="48">
         <f>'Group and Self Assessment'!C11</f>
         <v>1211250</v>
       </c>
-      <c r="E3" s="53">
+      <c r="E3" s="48">
         <f>'Group and Self Assessment'!C12</f>
         <v>1201078</v>
       </c>
-      <c r="F3" s="53">
+      <c r="F3" s="48">
         <f>'Group and Self Assessment'!C13</f>
         <v>1211171</v>
       </c>
-      <c r="G3" s="53">
+      <c r="G3" s="48">
         <f>'Group and Self Assessment'!C14</f>
         <v>1211861</v>
       </c>
-      <c r="H3" s="53" t="str">
+      <c r="H3" s="48" t="str">
         <f>'Group and Self Assessment'!C15</f>
         <v>Student 6</v>
       </c>
-      <c r="I3" s="53" t="str">
+      <c r="I3" s="48" t="str">
         <f>'Group and Self Assessment'!C16</f>
         <v>Student 7</v>
       </c>
-      <c r="J3" s="53" t="str">
+      <c r="J3" s="48" t="str">
         <f>'Group and Self Assessment'!C17</f>
         <v>Student 8</v>
       </c>
-      <c r="K3" s="53" t="str">
+      <c r="K3" s="48" t="str">
         <f>'Group and Self Assessment'!C18</f>
         <v>Student 9</v>
       </c>
-      <c r="L3" s="53" t="str">
+      <c r="L3" s="48" t="str">
         <f>'Group and Self Assessment'!C19</f>
         <v>Student 10</v>
       </c>
-      <c r="M3" s="53" t="str">
+      <c r="M3" s="48" t="str">
         <f>'Group and Self Assessment'!C20</f>
         <v>Student 11</v>
       </c>
-      <c r="N3" s="53" t="str">
+      <c r="N3" s="48" t="str">
         <f>'Group and Self Assessment'!C21</f>
         <v>Student 12</v>
       </c>
-      <c r="O3" s="53" t="str">
+      <c r="O3" s="48" t="str">
         <f>'Group and Self Assessment'!C22</f>
         <v>Student 13</v>
       </c>
-      <c r="P3" s="53" t="str">
+      <c r="P3" s="48" t="str">
         <f>'Group and Self Assessment'!C23</f>
         <v>Student 14</v>
       </c>
-      <c r="Q3" s="53" t="str">
+      <c r="Q3" s="48" t="str">
         <f>'Group and Self Assessment'!C24</f>
         <v>Student 15</v>
       </c>
-      <c r="R3" s="53" t="s">
+      <c r="R3" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="54">
+      <c r="S3" s="49">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="T3" s="36">
+      <c r="T3" s="2">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="U3" s="36">
+      <c r="U3" s="2">
         <f>2</f>
         <v>2</v>
       </c>
-      <c r="V3" s="54">
+      <c r="V3" s="49">
         <f>3</f>
         <v>3</v>
       </c>
-      <c r="W3" s="54">
+      <c r="W3" s="49">
         <f>4</f>
         <v>4</v>
       </c>
-      <c r="X3" s="54">
+      <c r="X3" s="49">
         <f>5</f>
         <v>5</v>
       </c>
-      <c r="Y3" s="36" t="s">
+      <c r="Y3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="Z3" s="37" t="s">
+      <c r="Z3" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
+    <row r="4" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="55">
+      <c r="B4" s="50">
         <v>0.35</v>
       </c>
-      <c r="C4" s="56" t="e">
+      <c r="C4" s="51" t="e">
         <f>#REF!*5</f>
         <v>#REF!</v>
       </c>
-      <c r="D4" s="56" t="e">
+      <c r="D4" s="51" t="e">
         <f>#REF!*5</f>
         <v>#REF!</v>
       </c>
-      <c r="E4" s="56" t="e">
+      <c r="E4" s="51" t="e">
         <f>#REF!*5</f>
         <v>#REF!</v>
       </c>
-      <c r="F4" s="56" t="e">
+      <c r="F4" s="51" t="e">
         <f>#REF!*5</f>
         <v>#REF!</v>
       </c>
-      <c r="G4" s="56" t="e">
+      <c r="G4" s="51" t="e">
         <f>#REF!*5</f>
         <v>#REF!</v>
       </c>
-      <c r="H4" s="56" t="e">
+      <c r="H4" s="51" t="e">
         <f>#REF!*5</f>
         <v>#REF!</v>
       </c>
-      <c r="I4" s="56" t="e">
+      <c r="I4" s="51" t="e">
         <f>#REF!*5</f>
         <v>#REF!</v>
       </c>
-      <c r="J4" s="56" t="e">
+      <c r="J4" s="51" t="e">
         <f>#REF!*5</f>
         <v>#REF!</v>
       </c>
-      <c r="K4" s="56" t="e">
+      <c r="K4" s="51" t="e">
         <f>#REF!*5</f>
         <v>#REF!</v>
       </c>
-      <c r="L4" s="56" t="e">
+      <c r="L4" s="51" t="e">
         <f>#REF!*5</f>
         <v>#REF!</v>
       </c>
-      <c r="M4" s="56" t="e">
+      <c r="M4" s="51" t="e">
         <f>#REF!*5</f>
         <v>#REF!</v>
       </c>
-      <c r="N4" s="56" t="e">
+      <c r="N4" s="51" t="e">
         <f>#REF!*5</f>
         <v>#REF!</v>
       </c>
-      <c r="O4" s="56" t="e">
+      <c r="O4" s="51" t="e">
         <f>#REF!*5</f>
         <v>#REF!</v>
       </c>
-      <c r="P4" s="56" t="e">
+      <c r="P4" s="51" t="e">
         <f>#REF!*5</f>
         <v>#REF!</v>
       </c>
-      <c r="Q4" s="56" t="e">
+      <c r="Q4" s="51" t="e">
         <f>#REF!*5</f>
         <v>#REF!</v>
       </c>
-      <c r="R4" s="57" t="e">
+      <c r="R4" s="52" t="e">
         <f>AVERAGE(C4:Q4)</f>
         <v>#REF!</v>
       </c>
-      <c r="S4" s="39" t="s">
+      <c r="S4" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="T4" s="39" t="s">
+      <c r="T4" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="U4" s="39" t="s">
+      <c r="U4" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="V4" s="39" t="s">
+      <c r="V4" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="W4" s="39" t="s">
+      <c r="W4" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="X4" s="39" t="s">
+      <c r="X4" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="40"/>
-    </row>
-    <row r="5" spans="1:26" ht="68" x14ac:dyDescent="0.2">
-      <c r="A5" s="38" t="s">
+      <c r="Y4" s="34"/>
+      <c r="Z4" s="35"/>
+    </row>
+    <row r="5" spans="1:26" ht="63" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="55">
+      <c r="B5" s="50">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="58"/>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="57" t="e">
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="52" t="e">
         <f>AVERAGE(C5:Q5)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S5" s="39" t="s">
+      <c r="S5" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="T5" s="39" t="s">
+      <c r="T5" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="U5" s="39" t="s">
+      <c r="U5" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="V5" s="39" t="s">
+      <c r="V5" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="W5" s="39" t="s">
+      <c r="W5" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="X5" s="39" t="s">
+      <c r="X5" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="Y5" s="39"/>
-      <c r="Z5" s="40"/>
-    </row>
-    <row r="6" spans="1:26" ht="119" x14ac:dyDescent="0.2">
-      <c r="A6" s="38" t="s">
+      <c r="Y5" s="34"/>
+      <c r="Z5" s="35"/>
+    </row>
+    <row r="6" spans="1:26" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="55">
+      <c r="B6" s="50">
         <v>0.1</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="58"/>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="58"/>
-      <c r="R6" s="57" t="e">
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="52" t="e">
         <f>AVERAGE(C6:Q6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S6" s="39" t="s">
+      <c r="S6" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="T6" s="39" t="s">
+      <c r="T6" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="U6" s="39" t="s">
+      <c r="U6" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="V6" s="39" t="s">
+      <c r="V6" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="W6" s="39" t="s">
+      <c r="W6" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="X6" s="39" t="s">
+      <c r="X6" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="Y6" s="39"/>
-      <c r="Z6" s="40"/>
-    </row>
-    <row r="7" spans="1:26" ht="85" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
+      <c r="Y6" s="34"/>
+      <c r="Z6" s="35"/>
+    </row>
+    <row r="7" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="55">
+      <c r="B7" s="50">
         <v>0.35</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="58"/>
-      <c r="R7" s="57" t="e">
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="52" t="e">
         <f>AVERAGE(C7:Q7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S7" s="39" t="s">
+      <c r="S7" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="T7" s="39" t="s">
+      <c r="T7" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="U7" s="39" t="s">
+      <c r="U7" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="V7" s="39" t="s">
+      <c r="V7" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="W7" s="39" t="s">
+      <c r="W7" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="X7" s="39" t="s">
+      <c r="X7" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="Y7" s="39"/>
-      <c r="Z7" s="40"/>
-    </row>
-    <row r="8" spans="1:26" ht="102" x14ac:dyDescent="0.2">
-      <c r="A8" s="38" t="s">
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="35"/>
+    </row>
+    <row r="8" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="55">
+      <c r="B8" s="50">
         <v>0.125</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="58"/>
-      <c r="Q8" s="58"/>
-      <c r="R8" s="57" t="e">
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="52" t="e">
         <f>AVERAGE(C8:Q8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S8" s="39" t="s">
+      <c r="S8" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="T8" s="39" t="s">
+      <c r="T8" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="U8" s="39" t="s">
+      <c r="U8" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="V8" s="39" t="s">
+      <c r="V8" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="W8" s="39" t="s">
+      <c r="W8" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X8" s="39" t="s">
+      <c r="X8" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="Y8" s="39"/>
-      <c r="Z8" s="40"/>
-    </row>
-    <row r="9" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="38" t="s">
+      <c r="Y8" s="34"/>
+      <c r="Z8" s="35"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="59">
+      <c r="B9" s="54">
         <f>SUM(B4:B8)</f>
         <v>1</v>
       </c>
-      <c r="C9" s="39" t="e">
+      <c r="C9" s="34" t="e">
         <f t="shared" ref="C9:Q9" si="0">SUMPRODUCT(C4:C8,$B$4:$B$8)</f>
         <v>#REF!</v>
       </c>
-      <c r="D9" s="39" t="e">
+      <c r="D9" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="E9" s="39" t="e">
+      <c r="E9" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="F9" s="39" t="e">
+      <c r="F9" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="G9" s="39" t="e">
+      <c r="G9" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="H9" s="39" t="e">
+      <c r="H9" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="I9" s="39" t="e">
+      <c r="I9" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="J9" s="39" t="e">
+      <c r="J9" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="K9" s="39" t="e">
+      <c r="K9" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="L9" s="39" t="e">
+      <c r="L9" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="M9" s="39" t="e">
+      <c r="M9" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="N9" s="39" t="e">
+      <c r="N9" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="O9" s="39" t="e">
+      <c r="O9" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="P9" s="39" t="e">
+      <c r="P9" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="Q9" s="39" t="e">
+      <c r="Q9" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="R9" s="57"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="39"/>
-      <c r="U9" s="39"/>
-      <c r="V9" s="39"/>
-      <c r="W9" s="39"/>
-      <c r="X9" s="39"/>
-      <c r="Y9" s="39"/>
-      <c r="Z9" s="40"/>
-    </row>
-    <row r="10" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="41" t="s">
+      <c r="R9" s="52"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="34"/>
+      <c r="U9" s="34"/>
+      <c r="V9" s="34"/>
+      <c r="W9" s="34"/>
+      <c r="X9" s="34"/>
+      <c r="Y9" s="34"/>
+      <c r="Z9" s="35"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42" t="e">
+      <c r="B10" s="37"/>
+      <c r="C10" s="37" t="e">
         <f t="shared" ref="C10:Q10" si="1">C9/5*20</f>
         <v>#REF!</v>
       </c>
-      <c r="D10" s="42" t="e">
+      <c r="D10" s="37" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
-      <c r="E10" s="42" t="e">
+      <c r="E10" s="37" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
-      <c r="F10" s="42" t="e">
+      <c r="F10" s="37" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
-      <c r="G10" s="42" t="e">
+      <c r="G10" s="37" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
-      <c r="H10" s="42" t="e">
+      <c r="H10" s="37" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
-      <c r="I10" s="42" t="e">
+      <c r="I10" s="37" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
-      <c r="J10" s="42" t="e">
+      <c r="J10" s="37" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
-      <c r="K10" s="42" t="e">
+      <c r="K10" s="37" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
-      <c r="L10" s="42" t="e">
+      <c r="L10" s="37" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
-      <c r="M10" s="42" t="e">
+      <c r="M10" s="37" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
-      <c r="N10" s="42" t="e">
+      <c r="N10" s="37" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
-      <c r="O10" s="42" t="e">
+      <c r="O10" s="37" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
-      <c r="P10" s="42" t="e">
+      <c r="P10" s="37" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
-      <c r="Q10" s="42" t="e">
+      <c r="Q10" s="37" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
-      <c r="R10" s="60"/>
-      <c r="S10" s="42"/>
-      <c r="T10" s="42"/>
-      <c r="U10" s="42"/>
-      <c r="V10" s="42"/>
-      <c r="W10" s="42"/>
-      <c r="X10" s="42"/>
-      <c r="Y10" s="42"/>
-      <c r="Z10" s="43"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A11" s="61"/>
+      <c r="R10" s="55"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="37"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="38"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="56"/>
     </row>
   </sheetData>
+  <autoFilter ref="A3:Z10" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:Q8" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>#REF!</formula1>
@@ -3862,813 +3911,813 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMJ17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" style="7" customWidth="1"/>
-    <col min="3" max="17" width="5.6640625" style="7" customWidth="1"/>
-    <col min="18" max="18" width="12.1640625" style="7" customWidth="1"/>
-    <col min="19" max="20" width="16.33203125" style="7" customWidth="1"/>
-    <col min="21" max="21" width="17.5" style="7" customWidth="1"/>
-    <col min="22" max="24" width="20.6640625" style="7" customWidth="1"/>
-    <col min="25" max="25" width="11" style="7" customWidth="1"/>
-    <col min="26" max="26" width="8.33203125" style="7" customWidth="1"/>
-    <col min="27" max="28" width="7.33203125" style="7" customWidth="1"/>
-    <col min="29" max="1024" width="10.83203125" style="7"/>
+    <col min="1" max="1" width="14.875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="7.125" style="6" customWidth="1"/>
+    <col min="3" max="17" width="5.625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="12.125" style="6" customWidth="1"/>
+    <col min="19" max="20" width="16.375" style="6" customWidth="1"/>
+    <col min="21" max="21" width="17.5" style="6" customWidth="1"/>
+    <col min="22" max="24" width="20.625" style="6" customWidth="1"/>
+    <col min="25" max="25" width="11" style="6" customWidth="1"/>
+    <col min="26" max="26" width="8.375" style="6" customWidth="1"/>
+    <col min="27" max="28" width="7.375" style="6" customWidth="1"/>
+    <col min="29" max="1024" width="10.875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-    </row>
-    <row r="3" spans="1:26" ht="57" x14ac:dyDescent="0.2">
-      <c r="A3" s="52" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+    </row>
+    <row r="3" spans="1:26" ht="57" x14ac:dyDescent="0.25">
+      <c r="A3" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="53">
+      <c r="C3" s="48">
         <f>'Group and Self Assessment'!C10</f>
         <v>1210792</v>
       </c>
-      <c r="D3" s="53">
+      <c r="D3" s="48">
         <f>'Group and Self Assessment'!C11</f>
         <v>1211250</v>
       </c>
-      <c r="E3" s="53">
+      <c r="E3" s="48">
         <f>'Group and Self Assessment'!C12</f>
         <v>1201078</v>
       </c>
-      <c r="F3" s="53">
+      <c r="F3" s="48">
         <f>'Group and Self Assessment'!C13</f>
         <v>1211171</v>
       </c>
-      <c r="G3" s="53">
+      <c r="G3" s="48">
         <f>'Group and Self Assessment'!C14</f>
         <v>1211861</v>
       </c>
-      <c r="H3" s="53" t="str">
+      <c r="H3" s="48" t="str">
         <f>'Group and Self Assessment'!C15</f>
         <v>Student 6</v>
       </c>
-      <c r="I3" s="53" t="str">
+      <c r="I3" s="48" t="str">
         <f>'Group and Self Assessment'!C16</f>
         <v>Student 7</v>
       </c>
-      <c r="J3" s="53" t="str">
+      <c r="J3" s="48" t="str">
         <f>'Group and Self Assessment'!C17</f>
         <v>Student 8</v>
       </c>
-      <c r="K3" s="53" t="str">
+      <c r="K3" s="48" t="str">
         <f>'Group and Self Assessment'!C18</f>
         <v>Student 9</v>
       </c>
-      <c r="L3" s="53" t="str">
+      <c r="L3" s="48" t="str">
         <f>'Group and Self Assessment'!C19</f>
         <v>Student 10</v>
       </c>
-      <c r="M3" s="53" t="str">
+      <c r="M3" s="48" t="str">
         <f>'Group and Self Assessment'!C20</f>
         <v>Student 11</v>
       </c>
-      <c r="N3" s="53" t="str">
+      <c r="N3" s="48" t="str">
         <f>'Group and Self Assessment'!C21</f>
         <v>Student 12</v>
       </c>
-      <c r="O3" s="53" t="str">
+      <c r="O3" s="48" t="str">
         <f>'Group and Self Assessment'!C22</f>
         <v>Student 13</v>
       </c>
-      <c r="P3" s="53" t="str">
+      <c r="P3" s="48" t="str">
         <f>'Group and Self Assessment'!C23</f>
         <v>Student 14</v>
       </c>
-      <c r="Q3" s="53" t="str">
+      <c r="Q3" s="48" t="str">
         <f>'Group and Self Assessment'!C24</f>
         <v>Student 15</v>
       </c>
-      <c r="R3" s="53" t="s">
+      <c r="R3" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="62">
+      <c r="S3" s="57">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="T3" s="63">
+      <c r="T3" s="58">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="U3" s="63">
+      <c r="U3" s="58">
         <f>2</f>
         <v>2</v>
       </c>
-      <c r="V3" s="62">
+      <c r="V3" s="57">
         <f>3</f>
         <v>3</v>
       </c>
-      <c r="W3" s="62">
+      <c r="W3" s="57">
         <f>4</f>
         <v>4</v>
       </c>
-      <c r="X3" s="62">
+      <c r="X3" s="57">
         <f>5</f>
         <v>5</v>
       </c>
-      <c r="Y3" s="36" t="s">
+      <c r="Y3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="Z3" s="37" t="s">
+      <c r="Z3" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="144.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
+    <row r="4" spans="1:26" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="55">
+      <c r="B4" s="50">
         <v>0.1</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="64" t="e">
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="59" t="e">
         <f t="shared" ref="R4:R14" si="0">AVERAGE(C4:Q4)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S4" s="39" t="s">
+      <c r="S4" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="T4" s="39" t="s">
+      <c r="T4" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="U4" s="39" t="s">
+      <c r="U4" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="V4" s="39" t="s">
+      <c r="V4" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="W4" s="39" t="s">
+      <c r="W4" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="X4" s="39" t="s">
+      <c r="X4" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="40"/>
-    </row>
-    <row r="5" spans="1:26" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="38" t="s">
+      <c r="Y4" s="60"/>
+      <c r="Z4" s="35"/>
+    </row>
+    <row r="5" spans="1:26" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="55">
+      <c r="B5" s="50">
         <v>0.1</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="58"/>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="64" t="e">
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="59" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S5" s="39" t="s">
+      <c r="S5" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="T5" s="39" t="s">
+      <c r="T5" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="U5" s="39" t="s">
+      <c r="U5" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="V5" s="39" t="s">
+      <c r="V5" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="W5" s="39" t="s">
+      <c r="W5" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="X5" s="39" t="s">
+      <c r="X5" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="Y5" s="65"/>
-      <c r="Z5" s="40"/>
-    </row>
-    <row r="6" spans="1:26" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="38" t="s">
+      <c r="Y5" s="60"/>
+      <c r="Z5" s="35"/>
+    </row>
+    <row r="6" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="55">
+      <c r="B6" s="50">
         <v>0.05</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="58"/>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="58"/>
-      <c r="R6" s="64" t="e">
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="59" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S6" s="39" t="s">
+      <c r="S6" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="T6" s="39" t="s">
+      <c r="T6" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="U6" s="39" t="s">
+      <c r="U6" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="V6" s="39" t="s">
+      <c r="V6" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="W6" s="39" t="s">
+      <c r="W6" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="X6" s="39" t="s">
+      <c r="X6" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="Y6" s="65"/>
-      <c r="Z6" s="40"/>
-    </row>
-    <row r="7" spans="1:26" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
+      <c r="Y6" s="60"/>
+      <c r="Z6" s="35"/>
+    </row>
+    <row r="7" spans="1:26" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="55">
+      <c r="B7" s="50">
         <v>0.05</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="58"/>
-      <c r="R7" s="64" t="e">
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="59" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S7" s="39" t="s">
+      <c r="S7" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="T7" s="39" t="s">
+      <c r="T7" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="U7" s="39" t="s">
+      <c r="U7" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="V7" s="39" t="s">
+      <c r="V7" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="W7" s="39" t="s">
+      <c r="W7" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="X7" s="39" t="s">
+      <c r="X7" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="Y7" s="65"/>
-      <c r="Z7" s="40"/>
-    </row>
-    <row r="8" spans="1:26" ht="68" x14ac:dyDescent="0.2">
-      <c r="A8" s="38" t="s">
+      <c r="Y7" s="60"/>
+      <c r="Z7" s="35"/>
+    </row>
+    <row r="8" spans="1:26" ht="63" x14ac:dyDescent="0.25">
+      <c r="A8" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="B8" s="55">
+      <c r="B8" s="50">
         <v>0.1</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="58"/>
-      <c r="Q8" s="58"/>
-      <c r="R8" s="64" t="e">
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="59" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S8" s="39" t="s">
+      <c r="S8" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="T8" s="39" t="s">
+      <c r="T8" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="U8" s="39" t="s">
+      <c r="U8" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="V8" s="39" t="s">
+      <c r="V8" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="W8" s="39" t="s">
+      <c r="W8" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="X8" s="39" t="s">
+      <c r="X8" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="Y8" s="65"/>
-      <c r="Z8" s="40"/>
-    </row>
-    <row r="9" spans="1:26" ht="68" x14ac:dyDescent="0.2">
-      <c r="A9" s="38" t="s">
+      <c r="Y8" s="60"/>
+      <c r="Z8" s="35"/>
+    </row>
+    <row r="9" spans="1:26" ht="63" x14ac:dyDescent="0.25">
+      <c r="A9" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="B9" s="55">
+      <c r="B9" s="50">
         <v>0.05</v>
       </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="64" t="e">
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="59" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S9" s="39" t="s">
+      <c r="S9" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="T9" s="39" t="s">
+      <c r="T9" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="U9" s="39"/>
-      <c r="V9" s="39" t="s">
+      <c r="U9" s="34"/>
+      <c r="V9" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="W9" s="39"/>
-      <c r="X9" s="39" t="s">
+      <c r="W9" s="34"/>
+      <c r="X9" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="Y9" s="65"/>
-      <c r="Z9" s="40"/>
-    </row>
-    <row r="10" spans="1:26" ht="102" x14ac:dyDescent="0.2">
-      <c r="A10" s="38" t="s">
+      <c r="Y9" s="60"/>
+      <c r="Z9" s="35"/>
+    </row>
+    <row r="10" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="B10" s="55">
+      <c r="B10" s="50">
         <v>0.1</v>
       </c>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="58"/>
-      <c r="Q10" s="58"/>
-      <c r="R10" s="64" t="e">
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="59" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S10" s="39" t="s">
+      <c r="S10" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="T10" s="39" t="s">
+      <c r="T10" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="U10" s="39" t="s">
+      <c r="U10" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="V10" s="39" t="s">
+      <c r="V10" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="W10" s="39" t="s">
+      <c r="W10" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="X10" s="39" t="s">
+      <c r="X10" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="Y10" s="65"/>
-      <c r="Z10" s="40"/>
-    </row>
-    <row r="11" spans="1:26" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="38" t="s">
+      <c r="Y10" s="60"/>
+      <c r="Z10" s="35"/>
+    </row>
+    <row r="11" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="B11" s="55">
+      <c r="B11" s="50">
         <v>0.1</v>
       </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="58"/>
-      <c r="Q11" s="58"/>
-      <c r="R11" s="64" t="e">
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="59" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S11" s="39" t="s">
+      <c r="S11" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="T11" s="39" t="s">
+      <c r="T11" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="U11" s="39" t="s">
+      <c r="U11" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="V11" s="39" t="s">
+      <c r="V11" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="W11" s="39" t="s">
+      <c r="W11" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="X11" s="39" t="s">
+      <c r="X11" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="Y11" s="65"/>
-      <c r="Z11" s="40"/>
-    </row>
-    <row r="12" spans="1:26" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="38" t="s">
+      <c r="Y11" s="60"/>
+      <c r="Z11" s="35"/>
+    </row>
+    <row r="12" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="B12" s="55">
+      <c r="B12" s="50">
         <v>0.1</v>
       </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="64" t="e">
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="59" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S12" s="39" t="s">
+      <c r="S12" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="T12" s="39" t="s">
+      <c r="T12" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="U12" s="39" t="s">
+      <c r="U12" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="V12" s="39" t="s">
+      <c r="V12" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="W12" s="39" t="s">
+      <c r="W12" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="X12" s="39" t="s">
+      <c r="X12" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="Y12" s="65"/>
-      <c r="Z12" s="40"/>
-    </row>
-    <row r="13" spans="1:26" ht="51" x14ac:dyDescent="0.2">
-      <c r="A13" s="38" t="s">
+      <c r="Y12" s="60"/>
+      <c r="Z12" s="35"/>
+    </row>
+    <row r="13" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="B13" s="55">
+      <c r="B13" s="50">
         <v>0.1</v>
       </c>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="64" t="e">
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="59" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S13" s="39" t="s">
+      <c r="S13" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="T13" s="39" t="s">
+      <c r="T13" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="U13" s="39" t="s">
+      <c r="U13" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="V13" s="39" t="s">
+      <c r="V13" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="W13" s="39" t="s">
+      <c r="W13" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="X13" s="39" t="s">
+      <c r="X13" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="Y13" s="65"/>
-      <c r="Z13" s="40"/>
-    </row>
-    <row r="14" spans="1:26" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="38" t="s">
+      <c r="Y13" s="60"/>
+      <c r="Z13" s="35"/>
+    </row>
+    <row r="14" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="B14" s="55">
+      <c r="B14" s="50">
         <v>0.15</v>
       </c>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="58"/>
-      <c r="Q14" s="58"/>
-      <c r="R14" s="64" t="e">
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="59" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S14" s="39" t="s">
+      <c r="S14" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="T14" s="39" t="s">
+      <c r="T14" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="U14" s="39" t="s">
+      <c r="U14" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="V14" s="39" t="s">
+      <c r="V14" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="W14" s="39" t="s">
+      <c r="W14" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="X14" s="39" t="s">
+      <c r="X14" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="Y14" s="65"/>
-      <c r="Z14" s="40"/>
-    </row>
-    <row r="15" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="38" t="s">
+      <c r="Y14" s="60"/>
+      <c r="Z14" s="35"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="59">
+      <c r="B15" s="54">
         <f>SUM(B4:B14)</f>
         <v>1</v>
       </c>
-      <c r="C15" s="39">
+      <c r="C15" s="34">
         <f t="shared" ref="C15:Q15" si="1">SUMPRODUCT(C4:C14,$B$4:$B$14)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="39">
+      <c r="D15" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E15" s="39">
+      <c r="E15" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F15" s="39">
+      <c r="F15" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G15" s="39">
+      <c r="G15" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H15" s="39">
+      <c r="H15" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I15" s="39">
+      <c r="I15" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J15" s="39">
+      <c r="J15" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K15" s="39">
+      <c r="K15" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L15" s="39">
+      <c r="L15" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M15" s="39">
+      <c r="M15" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N15" s="39">
+      <c r="N15" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O15" s="39">
+      <c r="O15" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P15" s="39">
+      <c r="P15" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="39">
+      <c r="Q15" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R15" s="57"/>
-      <c r="S15" s="47"/>
-      <c r="T15" s="47"/>
-      <c r="U15" s="47"/>
-      <c r="V15" s="47"/>
-      <c r="W15" s="47"/>
-      <c r="X15" s="47"/>
-      <c r="Y15" s="39"/>
-      <c r="Z15" s="40"/>
-    </row>
-    <row r="16" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="41" t="s">
+      <c r="R15" s="52"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="42"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="42"/>
+      <c r="W15" s="42"/>
+      <c r="X15" s="42"/>
+      <c r="Y15" s="34"/>
+      <c r="Z15" s="35"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42">
+      <c r="B16" s="37"/>
+      <c r="C16" s="37">
         <f t="shared" ref="C16:Q16" si="2">C15/5*20</f>
         <v>0</v>
       </c>
-      <c r="D16" s="42">
+      <c r="D16" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E16" s="42">
+      <c r="E16" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F16" s="42">
+      <c r="F16" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G16" s="42">
+      <c r="G16" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H16" s="42">
+      <c r="H16" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I16" s="42">
+      <c r="I16" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J16" s="42">
+      <c r="J16" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K16" s="42">
+      <c r="K16" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L16" s="42">
+      <c r="L16" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M16" s="42">
+      <c r="M16" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N16" s="42">
+      <c r="N16" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O16" s="42">
+      <c r="O16" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P16" s="42">
+      <c r="P16" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="42">
+      <c r="Q16" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R16" s="60"/>
-      <c r="S16" s="42"/>
-      <c r="T16" s="42"/>
-      <c r="U16" s="42"/>
-      <c r="V16" s="42"/>
-      <c r="W16" s="42"/>
-      <c r="X16" s="42"/>
-      <c r="Y16" s="42"/>
-      <c r="Z16" s="43"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="61"/>
+      <c r="R16" s="55"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="37"/>
+      <c r="W16" s="37"/>
+      <c r="X16" s="37"/>
+      <c r="Y16" s="37"/>
+      <c r="Z16" s="38"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="56"/>
     </row>
   </sheetData>
   <dataValidations count="1">
